--- a/tables/TableS1_mgmt_plan_species.xlsx
+++ b/tables/TableS1_mgmt_plan_species.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/ca_stock_status/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D885F7A-6985-264C-8CD6-385A7995E364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF16B55-704C-2A4D-911D-A4030153A84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5500" yWindow="4200" windowWidth="26440" windowHeight="15440" xr2:uid="{CC1DD306-550F-0E41-B51B-07E085C6C4B0}"/>
+    <workbookView xWindow="9660" yWindow="500" windowWidth="26440" windowHeight="15500" xr2:uid="{CC1DD306-550F-0E41-B51B-07E085C6C4B0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Final" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="293">
   <si>
     <t>CDFW Enhanced Status Report</t>
   </si>
@@ -892,6 +893,30 @@
   </si>
   <si>
     <t>Scientific name</t>
+  </si>
+  <si>
+    <t>Management plan</t>
+  </si>
+  <si>
+    <t>California sheephead, Monkeyface prickleback, Rock greenling, California scorpionfish</t>
+  </si>
+  <si>
+    <t>CDFW Enhanced Status Reports</t>
+  </si>
+  <si>
+    <t>White sturgeon, Barred surfperch, Redtail surfperch, Jacksmelt, Ocean whitefish, Shiner perch, Pacific hagfish, White croaker, Surf smelt, California grunion, California corbina, Brown smoothhound shark, Kelp bass, Spotted sand bass, Barred sand bass, California halibut, Pacific bonito, Yellowtail, Pacific barracuda, Night smelt, Pacific angel shark, Yellowfin croaker</t>
+  </si>
+  <si>
+    <t>Chinook salmon, Coho salmon, Pink salmon</t>
+  </si>
+  <si>
+    <t>Yellowfin tuna, Bigeye tuna, Skipjack tuna, Pacific bluefin tuna, Common thresher shark, Shortfin mako, Blue shark, Striped marlin, Swordfish, Dolphinfish</t>
+  </si>
+  <si>
+    <t>Pacific sardine, Pacific (chub) mackerel, Northern anchovy, Jack mackerel</t>
+  </si>
+  <si>
+    <t>Sablefish, Arrowtooth flounder (turbot), Pacific sanddab, Petrale sole, Pacific cod, Rex sole, Kelp greenling, Flathead sole, Butter sole, Rock sole, Pacific whiting (hake), Dover sole, Lingcod, English sole, Starry flounder, Curlfin sole, Sand sole, Big skate, Longnose skate, California scorpionfish, Cabezon, Rougheye rockfish, Pacific ocean perch, Kelp rockfish, Brown rockfish, Aurora rockfish, Redbanded rockfish, Shortraker rockfish, Silvergray rockfish, Gopher rockfish, Copper rockfish, Greenspotted rockfish, Black and yellow rockfish, Dusky rockfish, Starry rockfish, Darkblotched rockfish, Sunset rockfish, Calico rockfish, Deacon rockfish, Splitnose rockfish, Greenstriped rockfish, Swordspine rockfish, Widow rockfish, Pink rockfish, Yellowtail rockfish, Bronzespotted rockfish, Chilipepper rockfish, Rosethorn rockfish, Squarespot rockfish, Freckled rockfish, Cowcod, Mexican rockfish, Quillback rockfish, Black rockfish, Blackspotted rockfish, Blackgill rockfish, Vermilion rockfish, Blue rockfish, China rockfish, Tiger rockfish, Speckled rockfish, Bocaccio, Chameleon rockfish, Canary rockfish, Redstripe rockfish, Grass rockfish, Yellowmouth rockfish, Rosy rockfish, Greenblotched rockfish, Yelloweye rockfish, Flag rockfish, Dwarf-red rockfish, Bank rockfish, Stripetail rockfish, Halfbanded rockfish, Olive rockfish, Treefish, Pinkrose rockfish, Honeycomb rockfish, Harlequin rockfish, Pygmy rockfish, Sharpchin rockfish, Shortspine thornyhead, Longspine thornyhead, Pacific Spiny dogfish, Leopard shark</t>
   </si>
 </sst>
 </file>
@@ -941,13 +966,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1281,11 +1318,115 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F802C4F-CE5D-F84C-B018-116FE852507A}">
-  <dimension ref="A1:H164"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EEB17B-8E6A-CE41-914E-DD7E6F46FA08}">
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A17" sqref="A11:A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="74" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="306" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F802C4F-CE5D-F84C-B018-116FE852507A}">
+  <dimension ref="A1:H57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2120,74 +2261,6 @@
         <v>65</v>
       </c>
     </row>
-    <row r="97" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="105" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="117" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="118" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="119" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="121" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="122" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="123" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="124" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="125" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="126" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="127" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="128" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="129" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="130" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="131" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="132" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="133" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="134" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="135" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="136" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="137" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="138" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="139" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="140" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="141" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="142" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="143" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="144" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="145" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="146" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="147" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="148" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="149" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="150" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="151" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="152" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="153" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="154" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="155" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="156" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="157" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="158" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="159" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="160" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="161" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="162" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="163" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="164" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B149">
     <sortCondition ref="B3:B149"/>
@@ -2196,12 +2269,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F31AB4-61F6-2E48-825A-E4DA771C4BEC}">
   <dimension ref="A2:H87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C87"/>
+      <selection activeCell="B2" sqref="B2:B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2209,6 +2282,10 @@
     <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
